--- a/お年玉シミュレーション.xlsx
+++ b/お年玉シミュレーション.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobu/Documents/GitHub/otoshidama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ft/Documents/GitHub/otoshidama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604C4D4-9575-4D48-8EA3-E2F9696E6C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDFDCE-A2C7-0F43-8B40-38A4A189E0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="-30680" windowWidth="20740" windowHeight="25080" xr2:uid="{753CDC8A-DA35-FE42-8CB1-24877E999D21}"/>
+    <workbookView xWindow="1000" yWindow="-30680" windowWidth="26640" windowHeight="28520" xr2:uid="{753CDC8A-DA35-FE42-8CB1-24877E999D21}"/>
   </bookViews>
   <sheets>
     <sheet name="シミュレーション" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -234,10 +244,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>…入力エリア</t>
     <rPh sb="1" eb="3">
       <t xml:space="preserve">ニュウリョク </t>
@@ -245,18 +251,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランクA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランクB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランクC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>白濱 一郎</t>
   </si>
   <si>
@@ -340,6 +334,66 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種別A</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種別B</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種別C</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※表以上の年齢は、一番下の年齢の金額にする</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ヒョウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">イジョウノ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ネンレイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">イチバンシタノ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ネンレイノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">キンガク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中 二郎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タナカ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジロウ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -350,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,6 +436,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="MS-Mincho"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS-Mincho"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -815,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1044,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055BDAC1-C64A-1441-BB9C-BA7E98DB57FA}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1313,11 +1377,11 @@
         <v>2</v>
       </c>
       <c r="B1" s="40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1">
@@ -1325,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1785,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>3</v>
@@ -1805,20 +1869,20 @@
     </row>
     <row r="32" spans="1:8" ht="16" thickTop="1">
       <c r="A32" s="36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32" s="37">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32" s="48">
         <f>IF(OR(A32="",B32="",C32=""),"",$B$1-B32)</f>
         <v>0</v>
       </c>
       <c r="E32" s="38">
-        <f>IF(OR(A32="",B32="",C32="",D32=""),"",IF(C32="A",VLOOKUP(D32,$A$4:$E$28,3,FALSE),IF(C32="B",VLOOKUP(D32,$A$4:$E$28,4,FALSE),IF(C32="C",VLOOKUP(D32,$A$4:$E$28,5,FALSE)))))</f>
+        <f t="shared" ref="E32:E55" si="1">IF(D32&gt;A4,VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A32="",B32="",C32="",D32=""),"",IF(C32="A",VLOOKUP(D32,$A$4:$E$28,3,FALSE),IF(C32="B",VLOOKUP(D32,$A$4:$E$28,4,FALSE),IF(C32="C",VLOOKUP(D32,$A$4:$E$28,5,FALSE))))))</f>
         <v>1000</v>
       </c>
       <c r="F32" s="50">
@@ -1826,30 +1890,30 @@
         <v>1</v>
       </c>
       <c r="G32" s="50">
-        <f t="shared" ref="G32:G61" si="1">IF($E32="","",IF(($E32-10000*$H32)/5000&gt;=1,ROUNDDOWN(($E32-10000*$H32)/5000,0),0))</f>
+        <f t="shared" ref="G32:G61" si="2">IF($E32="","",IF(($E32-10000*$H32)/5000&gt;=1,ROUNDDOWN(($E32-10000*$H32)/5000,0),0))</f>
         <v>0</v>
       </c>
       <c r="H32" s="51">
-        <f t="shared" ref="H32:H61" si="2">IF($E32="","",IF($E32/10000&gt;=1,ROUNDDOWN($E32/10000,0),0))</f>
+        <f t="shared" ref="H32:H61" si="3">IF($E32="","",IF($E32/10000&gt;=1,ROUNDDOWN($E32/10000,0),0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33" s="30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" s="48">
-        <f t="shared" ref="D33:D61" si="3">IF(OR(A33="",B33="",C33=""),"",$B$1-B33)</f>
+        <f t="shared" ref="D33:D61" si="4">IF(OR(A33="",B33="",C33=""),"",$B$1-B33)</f>
         <v>1</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" ref="E33:E61" si="4">IF(OR(A33="",B33="",C33="",D33=""),"",IF(C33="A",VLOOKUP(D33,$A$4:$E$28,3,FALSE),IF(C33="B",VLOOKUP(D33,$A$4:$E$28,4,FALSE),IF(C33="C",VLOOKUP(D33,$A$4:$E$28,5,FALSE)))))</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F33" s="52">
@@ -1857,30 +1921,30 @@
         <v>1</v>
       </c>
       <c r="G33" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34" s="30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D34" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F34" s="52">
@@ -1888,30 +1952,30 @@
         <v>1</v>
       </c>
       <c r="G34" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" s="30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D35" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F35" s="52">
@@ -1919,30 +1983,30 @@
         <v>1</v>
       </c>
       <c r="G35" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D36" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F36" s="52">
@@ -1950,30 +2014,30 @@
         <v>1</v>
       </c>
       <c r="G36" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D37" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F37" s="52">
@@ -1981,30 +2045,30 @@
         <v>1</v>
       </c>
       <c r="G37" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" s="30">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D38" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F38" s="52">
@@ -2012,30 +2076,30 @@
         <v>1</v>
       </c>
       <c r="G38" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" s="30">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D39" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F39" s="52">
@@ -2043,30 +2107,30 @@
         <v>1</v>
       </c>
       <c r="G39" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="30">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D40" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F40" s="52">
@@ -2074,30 +2138,30 @@
         <v>1</v>
       </c>
       <c r="G40" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41" s="30">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D41" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F41" s="52">
@@ -2105,30 +2169,30 @@
         <v>1</v>
       </c>
       <c r="G41" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" s="30">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F42" s="52">
@@ -2136,30 +2200,30 @@
         <v>3</v>
       </c>
       <c r="G42" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43" s="30">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F43" s="52">
@@ -2167,30 +2231,30 @@
         <v>3</v>
       </c>
       <c r="G43" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B44" s="30">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F44" s="52">
@@ -2198,30 +2262,30 @@
         <v>3</v>
       </c>
       <c r="G44" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="30">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F45" s="52">
@@ -2229,30 +2293,30 @@
         <v>0</v>
       </c>
       <c r="G45" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H45" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B46" s="30">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F46" s="52">
@@ -2260,30 +2324,30 @@
         <v>0</v>
       </c>
       <c r="G46" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H46" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47" s="30">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D47" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F47" s="52">
@@ -2291,30 +2355,30 @@
         <v>0</v>
       </c>
       <c r="G47" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H47" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48" s="30">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="F48" s="52">
@@ -2322,30 +2386,30 @@
         <v>0</v>
       </c>
       <c r="G48" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="30">
+        <v>2006</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="48">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="E49" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="30">
-        <v>2005</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="48">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F49" s="52">
@@ -2353,30 +2417,30 @@
         <v>0</v>
       </c>
       <c r="G49" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="30">
+        <v>2005</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="48">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="E50" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="30">
-        <v>2004</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="48">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F50" s="52">
@@ -2384,30 +2448,30 @@
         <v>0</v>
       </c>
       <c r="G50" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="30">
+        <v>2004</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="48">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="E51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="30">
-        <v>2003</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="48">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F51" s="52">
@@ -2415,30 +2479,30 @@
         <v>0</v>
       </c>
       <c r="G51" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="30">
+        <v>2003</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="48">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="30">
-        <v>2002</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="48">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F52" s="52">
@@ -2446,30 +2510,30 @@
         <v>0</v>
       </c>
       <c r="G52" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="30">
+        <v>2002</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="48">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E53" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="30">
-        <v>2001</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="48">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F53" s="52">
@@ -2477,30 +2541,30 @@
         <v>0</v>
       </c>
       <c r="G53" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="30">
+        <v>2001</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="48">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E54" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="30">
-        <v>2000</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="48">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F54" s="52">
@@ -2508,30 +2572,30 @@
         <v>0</v>
       </c>
       <c r="G54" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="30">
+        <v>2000</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="48">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E55" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="30">
-        <v>1999</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="48">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="F55" s="52">
@@ -2539,30 +2603,30 @@
         <v>0</v>
       </c>
       <c r="G55" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B56" s="30">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D56" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(D56&gt;A28,VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A56="",B56="",C56="",D56=""),"",IF(C56="A",VLOOKUP(D56,$A$4:$E$28,3,FALSE),IF(C56="B",VLOOKUP(D56,$A$4:$E$28,4,FALSE),IF(C56="C",VLOOKUP(D56,$A$4:$E$28,5,FALSE))))))</f>
         <v>10000</v>
       </c>
       <c r="F56" s="52">
@@ -2570,24 +2634,29 @@
         <v>0</v>
       </c>
       <c r="G56" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="32"/>
-      <c r="B57" s="30"/>
+      <c r="I56" s="56"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="30">
+        <v>1998</v>
+      </c>
       <c r="C57" s="42"/>
       <c r="D57" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E57:E61" si="6">IF(D57&gt;A29,VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A57="",B57="",C57="",D57=""),"",IF(C57="A",VLOOKUP(D57,$A$4:$E$28,3,FALSE),IF(C57="B",VLOOKUP(D57,$A$4:$E$28,4,FALSE),IF(C57="C",VLOOKUP(D57,$A$4:$E$28,5,FALSE))))))</f>
         <v/>
       </c>
       <c r="F57" s="52" t="str">
@@ -2595,24 +2664,27 @@
         <v/>
       </c>
       <c r="G57" s="52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H57" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="32"/>
       <c r="B58" s="30"/>
       <c r="C58" s="42"/>
       <c r="D58" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F58" s="52" t="str">
@@ -2620,24 +2692,24 @@
         <v/>
       </c>
       <c r="G58" s="52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H58" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" s="32"/>
       <c r="B59" s="30"/>
       <c r="C59" s="42"/>
       <c r="D59" s="48" t="str">
-        <f t="shared" ref="D59" si="6">IF(OR(A59="",B59="",C59=""),"",$B$1-B59)</f>
+        <f t="shared" ref="D59" si="7">IF(OR(A59="",B59="",C59=""),"",$B$1-B59)</f>
         <v/>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F59" s="52" t="str">
@@ -2645,24 +2717,24 @@
         <v/>
       </c>
       <c r="G59" s="52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H59" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" s="32"/>
       <c r="B60" s="30"/>
       <c r="C60" s="42"/>
       <c r="D60" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E60" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F60" s="52" t="str">
@@ -2670,24 +2742,24 @@
         <v/>
       </c>
       <c r="G60" s="52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H60" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" thickBot="1">
+    <row r="61" spans="1:9" ht="16" thickBot="1">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
       <c r="C61" s="43"/>
       <c r="D61" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E61" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F61" s="54" t="str">
@@ -2695,11 +2767,11 @@
         <v/>
       </c>
       <c r="G61" s="54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H61" s="55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/お年玉シミュレーション.xlsx
+++ b/お年玉シミュレーション.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ft/Documents/GitHub/otoshidama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDFDCE-A2C7-0F43-8B40-38A4A189E0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE082DBA-1CB7-8A4E-8FFF-8B8ED3A327E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="-30680" windowWidth="26640" windowHeight="28520" xr2:uid="{753CDC8A-DA35-FE42-8CB1-24877E999D21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -401,8 +401,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="&quot;合計:&quot;General&quot;枚&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -876,7 +877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1048,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1823,10 +1827,18 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="29" spans="1:8">
+      <c r="F29" s="57">
+        <f>SUM(F30:H30)</f>
+        <v>32</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+    </row>
     <row r="30" spans="1:8" ht="18" thickBot="1">
       <c r="E30" s="31">
         <f>SUM(E32:E61)</f>
-        <v>124000</v>
+        <v>134000</v>
       </c>
       <c r="F30" s="5">
         <f>SUM(F32:F61)</f>
@@ -1838,7 +1850,7 @@
       </c>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" thickBot="1">
@@ -1882,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="38">
-        <f t="shared" ref="E32:E55" si="1">IF(D32&gt;A4,VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A32="",B32="",C32="",D32=""),"",IF(C32="A",VLOOKUP(D32,$A$4:$E$28,3,FALSE),IF(C32="B",VLOOKUP(D32,$A$4:$E$28,4,FALSE),IF(C32="C",VLOOKUP(D32,$A$4:$E$28,5,FALSE))))))</f>
+        <f t="shared" ref="E32:E52" si="1">IF(AND(D32&lt;&gt;"",D32&gt;A4),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A32="",B32="",C32="",D32=""),"",IF(C32="A",VLOOKUP(D32,$A$4:$E$28,3,FALSE),IF(C32="B",VLOOKUP(D32,$A$4:$E$28,4,FALSE),IF(C32="C",VLOOKUP(D32,$A$4:$E$28,5,FALSE))))))</f>
         <v>1000</v>
       </c>
       <c r="F32" s="50">
@@ -2533,7 +2545,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(AND(D53&lt;&gt;"",D53&gt;A25),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A53="",B53="",C53="",D53=""),"",IF(C53="A",VLOOKUP(D53,$A$4:$E$28,3,FALSE),IF(C53="B",VLOOKUP(D53,$A$4:$E$28,4,FALSE),IF(C53="C",VLOOKUP(D53,$A$4:$E$28,5,FALSE))))))</f>
         <v>10000</v>
       </c>
       <c r="F53" s="52">
@@ -2564,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E54:E61" si="6">IF(AND(D54&lt;&gt;"",D54&gt;A26),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A54="",B54="",C54="",D54=""),"",IF(C54="A",VLOOKUP(D54,$A$4:$E$28,3,FALSE),IF(C54="B",VLOOKUP(D54,$A$4:$E$28,4,FALSE),IF(C54="C",VLOOKUP(D54,$A$4:$E$28,5,FALSE))))))</f>
         <v>10000</v>
       </c>
       <c r="F54" s="52">
@@ -2595,7 +2607,7 @@
         <v>23</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="F55" s="52">
@@ -2626,7 +2638,7 @@
         <v>24</v>
       </c>
       <c r="E56" s="3">
-        <f>IF(D56&gt;A28,VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A56="",B56="",C56="",D56=""),"",IF(C56="A",VLOOKUP(D56,$A$4:$E$28,3,FALSE),IF(C56="B",VLOOKUP(D56,$A$4:$E$28,4,FALSE),IF(C56="C",VLOOKUP(D56,$A$4:$E$28,5,FALSE))))))</f>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="F56" s="52">
@@ -2650,26 +2662,28 @@
       <c r="B57" s="30">
         <v>1998</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="48" t="str">
+      <c r="C57" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="48">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E57" s="3" t="str">
-        <f t="shared" ref="E57:E61" si="6">IF(D57&gt;A29,VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A57="",B57="",C57="",D57=""),"",IF(C57="A",VLOOKUP(D57,$A$4:$E$28,3,FALSE),IF(C57="B",VLOOKUP(D57,$A$4:$E$28,4,FALSE),IF(C57="C",VLOOKUP(D57,$A$4:$E$28,5,FALSE))))))</f>
-        <v/>
-      </c>
-      <c r="F57" s="52" t="str">
+        <v>25</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="F57" s="52">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G57" s="52" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H57" s="53" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I57" s="56" t="s">
         <v>64</v>
@@ -2776,6 +2790,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F29:H29"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/お年玉シミュレーション.xlsx
+++ b/お年玉シミュレーション.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ft/Documents/GitHub/otoshidama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE082DBA-1CB7-8A4E-8FFF-8B8ED3A327E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1B851A-8951-0A48-B262-46334AF9BE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="-30680" windowWidth="26640" windowHeight="28520" xr2:uid="{753CDC8A-DA35-FE42-8CB1-24877E999D21}"/>
   </bookViews>
@@ -403,7 +403,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="&quot;合計:&quot;General&quot;枚&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;合計:&quot;General&quot;枚&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1049,7 +1049,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="38">
-        <f t="shared" ref="E32:E52" si="1">IF(AND(D32&lt;&gt;"",D32&gt;A4),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A32="",B32="",C32="",D32=""),"",IF(C32="A",VLOOKUP(D32,$A$4:$E$28,3,FALSE),IF(C32="B",VLOOKUP(D32,$A$4:$E$28,4,FALSE),IF(C32="C",VLOOKUP(D32,$A$4:$E$28,5,FALSE))))))</f>
+        <f t="shared" ref="E32:E55" si="1">IF(AND(D32&lt;&gt;"",D32&gt;$A$28),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A32="",B32="",C32="",D32=""),"",IF(C32="A",VLOOKUP(D32,$A$4:$E$28,3,FALSE),IF(C32="B",VLOOKUP(D32,$A$4:$E$28,4,FALSE),IF(C32="C",VLOOKUP(D32,$A$4:$E$28,5,FALSE))))))</f>
         <v>1000</v>
       </c>
       <c r="F32" s="50">
@@ -2545,7 +2545,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="3">
-        <f>IF(AND(D53&lt;&gt;"",D53&gt;A25),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A53="",B53="",C53="",D53=""),"",IF(C53="A",VLOOKUP(D53,$A$4:$E$28,3,FALSE),IF(C53="B",VLOOKUP(D53,$A$4:$E$28,4,FALSE),IF(C53="C",VLOOKUP(D53,$A$4:$E$28,5,FALSE))))))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="F53" s="52">
@@ -2576,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" ref="E54:E61" si="6">IF(AND(D54&lt;&gt;"",D54&gt;A26),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A54="",B54="",C54="",D54=""),"",IF(C54="A",VLOOKUP(D54,$A$4:$E$28,3,FALSE),IF(C54="B",VLOOKUP(D54,$A$4:$E$28,4,FALSE),IF(C54="C",VLOOKUP(D54,$A$4:$E$28,5,FALSE))))))</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="F54" s="52">
@@ -2607,7 +2607,7 @@
         <v>23</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="F55" s="52">
@@ -2638,7 +2638,7 @@
         <v>24</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(AND(D56&lt;&gt;"",D56&gt;$A$28),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A56="",B56="",C56="",D56=""),"",IF(C56="A",VLOOKUP(D56,$A$4:$E$28,3,FALSE),IF(C56="B",VLOOKUP(D56,$A$4:$E$28,4,FALSE),IF(C56="C",VLOOKUP(D56,$A$4:$E$28,5,FALSE))))))</f>
         <v>10000</v>
       </c>
       <c r="F56" s="52">
@@ -2670,7 +2670,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E57:E61" si="6">IF(AND(D57&lt;&gt;"",D57&gt;$A$28),VLOOKUP($A$28,$A$4:$E$28,3,FALSE),IF(OR(A57="",B57="",C57="",D57=""),"",IF(C57="A",VLOOKUP(D57,$A$4:$E$28,3,FALSE),IF(C57="B",VLOOKUP(D57,$A$4:$E$28,4,FALSE),IF(C57="C",VLOOKUP(D57,$A$4:$E$28,5,FALSE))))))</f>
         <v>10000</v>
       </c>
       <c r="F57" s="52">
